--- a/data/excel/dh_original.xlsx
+++ b/data/excel/dh_original.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20396"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408097D7-7D41-4430-925A-F19CA487BDFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1121B1C-BA28-4C9B-9FC7-40BD07CB8323}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,19 +22,23 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>delta_d</t>
+    <t>theta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>delta_a</t>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>delta_alpha</t>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>delta_beta</t>
+    <t>alpha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>delta_theta</t>
+    <t>beta</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -407,96 +411,99 @@
     <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
       <c r="B2" s="2">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="C2" s="2">
-        <v>430</v>
+        <v>165</v>
       </c>
       <c r="D2" s="2">
-        <v>165</v>
-      </c>
-      <c r="E2" s="2">
         <f>-PI()/2</f>
         <v>-1.5707963267948966</v>
       </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B3" s="2">
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
         <f>-PI()/2</f>
         <v>-1.5707963267948966</v>
       </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="D3" s="2">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="D4" s="2">
-        <v>210</v>
-      </c>
-      <c r="E4" s="2">
         <f>-PI()/2</f>
         <v>-1.5707963267948966</v>
       </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
       <c r="B5" s="2">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="C5" s="2">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
         <f>PI()/2</f>
         <v>1.5707963267948966</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
       <c r="B6" s="2">
         <v>0</v>
       </c>
@@ -504,39 +511,37 @@
         <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
         <f>-PI()/2</f>
         <v>-1.5707963267948966</v>
       </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B7" s="2">
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
+      <c r="B7" s="2">
+        <v>115</v>
+      </c>
       <c r="C7" s="2">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E5" formula="1"/>
+    <ignoredError sqref="D5" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>